--- a/biology/Botanique/Callitriche_des_marais/Callitriche_des_marais.xlsx
+++ b/biology/Botanique/Callitriche_des_marais/Callitriche_des_marais.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Callitriche palustris est une espèce de plante herbacée aquatique de la famille des Callitrichaceae selon la classification classique de Cronquist (1981)[1] ou de la famille des Plantaginaceae selon la classification phylogénétique APG III (2009)[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Callitriche palustris est une espèce de plante herbacée aquatique de la famille des Callitrichaceae selon la classification classique de Cronquist (1981) ou de la famille des Plantaginaceae selon la classification phylogénétique APG III (2009).
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Elle se distingue par ses fruits ovoïdes et ses lobes ailés seulement sur l'apex. Ses feuilles submergées sont étroitement linéaires sur de longues tiges atteignant 40 cm. Ses rosettes flottantes possèdent des feuilles elliptiques à presque arrondies. Ses fleurs ont des étamines mesurant 5 mm. Son fruit est ovale, noirâtre. Elle fleurit du printemps, jusqu'au début de l'automne.
 </t>
@@ -542,7 +556,9 @@
           <t>Distribution et habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce vivace se rencontre dans les marais et les bords de lacs et d'étangs (à une profondeur d'environ 30 cm) de Grande-Bretagne, du Danemark, de Finlande, d'Allemagne, de France, des Pays-Bas, d'Islande, de Norvège, du Groenland, de Suède, de Suisse, d'Autriche, de Bulgarie, de Roumanie, de République tchèque, de Hongrie, de Pologne, de Belgique[réf. nécessaire], de Russie et aussi en Espagne et dans quelques zones d'Afrique du Nord.
 </t>
@@ -573,7 +589,9 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Synonymes
 Callitriche alpina Schur
@@ -644,7 +662,7 @@
 Callitriche palustris var. elegans (Petrov) Y.L.Chang
 Callitriche palustris var. oryzetorum (Petrov) Lansdown
 Callitriche palustris subsp. palustris
-Callitriche palustris subsp. subanceps (Petrov) Kuvaev[3]</t>
+Callitriche palustris subsp. subanceps (Petrov) Kuvaev</t>
         </is>
       </c>
     </row>
